--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.2301699719436</v>
+        <v>590.2933591126368</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.3356165816896</v>
+        <v>807.6654158429692</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.886743700938</v>
+        <v>730.5829621204462</v>
       </c>
       <c r="AD2" t="n">
-        <v>478230.1699719436</v>
+        <v>590293.3591126369</v>
       </c>
       <c r="AE2" t="n">
-        <v>654335.6165816896</v>
+        <v>807665.4158429692</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.195271962191393e-06</v>
+        <v>1.723181053204703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>591886.7437009381</v>
+        <v>730582.9621204461</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.1713655546872</v>
+        <v>436.9677295958624</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.173957887183</v>
+        <v>597.8785252887411</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.4920924327062</v>
+        <v>540.8178379629633</v>
       </c>
       <c r="AD3" t="n">
-        <v>342171.3655546872</v>
+        <v>436967.7295958624</v>
       </c>
       <c r="AE3" t="n">
-        <v>468173.9578871829</v>
+        <v>597878.5252887411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521142760975841e-06</v>
+        <v>2.192977387445268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>423492.0924327062</v>
+        <v>540817.8379629633</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.0636428103459</v>
+        <v>384.6787016236768</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.1380227849596</v>
+        <v>526.3343703880904</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.0406395577807</v>
+        <v>476.1017567931786</v>
       </c>
       <c r="AD4" t="n">
-        <v>307063.6428103459</v>
+        <v>384678.7016236768</v>
       </c>
       <c r="AE4" t="n">
-        <v>420138.0227849596</v>
+        <v>526334.3703880904</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.652438745730695e-06</v>
+        <v>2.382262136396143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.3984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>380040.6395577807</v>
+        <v>476101.7567931786</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.6314611570088</v>
+        <v>361.3317713163602</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.077078091968</v>
+        <v>494.390070347748</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.0395464284697</v>
+        <v>447.2061759145798</v>
       </c>
       <c r="AD5" t="n">
-        <v>283631.4611570088</v>
+        <v>361331.7713163602</v>
       </c>
       <c r="AE5" t="n">
-        <v>388077.078091968</v>
+        <v>494390.0703477479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.713266716623344e-06</v>
+        <v>2.469955657421207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>351039.5464284697</v>
+        <v>447206.1759145798</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.1464713069544</v>
+        <v>358.846781466306</v>
       </c>
       <c r="AB6" t="n">
-        <v>384.6770053491087</v>
+        <v>490.9899976048887</v>
       </c>
       <c r="AC6" t="n">
-        <v>347.9639718561569</v>
+        <v>444.1306013422671</v>
       </c>
       <c r="AD6" t="n">
-        <v>281146.4713069545</v>
+        <v>358846.781466306</v>
       </c>
       <c r="AE6" t="n">
-        <v>384677.0053491087</v>
+        <v>490989.9976048887</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.726221253785823e-06</v>
+        <v>2.488631752651027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>347963.9718561569</v>
+        <v>444130.6013422671</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.9786447222937</v>
+        <v>486.9023865277584</v>
       </c>
       <c r="AB2" t="n">
-        <v>528.1130098850599</v>
+        <v>666.2013258645476</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.7106454328937</v>
+        <v>602.6200063434677</v>
       </c>
       <c r="AD2" t="n">
-        <v>385978.6447222937</v>
+        <v>486902.3865277584</v>
       </c>
       <c r="AE2" t="n">
-        <v>528113.0098850599</v>
+        <v>666201.3258645476</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.384509945591697e-06</v>
+        <v>2.026870476531862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>477710.6454328937</v>
+        <v>602620.0063434677</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.1890248939951</v>
+        <v>378.2779195894537</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.5224025637526</v>
+        <v>517.5765380262926</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.1062294068074</v>
+        <v>468.179759660296</v>
       </c>
       <c r="AD3" t="n">
-        <v>294189.0248939951</v>
+        <v>378277.9195894537</v>
       </c>
       <c r="AE3" t="n">
-        <v>402522.4025637525</v>
+        <v>517576.5380262926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683781218842656e-06</v>
+        <v>2.464992362299344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>364106.2294068073</v>
+        <v>468179.759660296</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.7360978974119</v>
+        <v>341.4929098924391</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.5918525924797</v>
+        <v>467.2456649187437</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.8911564854228</v>
+        <v>422.6523944423074</v>
       </c>
       <c r="AD4" t="n">
-        <v>265736.0978974118</v>
+        <v>341492.9098924391</v>
       </c>
       <c r="AE4" t="n">
-        <v>363591.8525924797</v>
+        <v>467245.6649187437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.786307104450496e-06</v>
+        <v>2.615086401912764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>328891.1564854227</v>
+        <v>422652.3944423074</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.9810266152497</v>
+        <v>340.7378386102769</v>
       </c>
       <c r="AB5" t="n">
-        <v>362.5587307528314</v>
+        <v>466.2125430790954</v>
       </c>
       <c r="AC5" t="n">
-        <v>327.9566343441549</v>
+        <v>421.7178723010395</v>
       </c>
       <c r="AD5" t="n">
-        <v>264981.0266152497</v>
+        <v>340737.8386102769</v>
       </c>
       <c r="AE5" t="n">
-        <v>362558.7307528314</v>
+        <v>466212.5430790954</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.792802503232529e-06</v>
+        <v>2.624595421379558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>327956.6343441549</v>
+        <v>421717.8723010395</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6360316068284</v>
+        <v>303.4563788689694</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.6711257385757</v>
+        <v>415.2024051191148</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.1621621594237</v>
+        <v>375.5760703147812</v>
       </c>
       <c r="AD2" t="n">
-        <v>233636.0316068284</v>
+        <v>303456.3788689694</v>
       </c>
       <c r="AE2" t="n">
-        <v>319671.1257385757</v>
+        <v>415202.4051191148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943735549017937e-06</v>
+        <v>3.007198815275701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>289162.1621594237</v>
+        <v>375576.0703147812</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.500670480375</v>
+        <v>303.0028761136331</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.5399657385652</v>
+        <v>414.5819026421341</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.0933444471295</v>
+        <v>375.0147877233229</v>
       </c>
       <c r="AD3" t="n">
-        <v>225500.6704803751</v>
+        <v>303002.8761136331</v>
       </c>
       <c r="AE3" t="n">
-        <v>308539.9657385652</v>
+        <v>414581.9026421341</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.952977319094361e-06</v>
+        <v>3.021496974322548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>279093.3444471295</v>
+        <v>375014.7877233229</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.3703730662305</v>
+        <v>357.4144359830842</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.5103811464531</v>
+        <v>489.0301993241218</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.2904430160002</v>
+        <v>442.3578434588225</v>
       </c>
       <c r="AD2" t="n">
-        <v>277370.3730662304</v>
+        <v>357414.4359830841</v>
       </c>
       <c r="AE2" t="n">
-        <v>379510.3811464531</v>
+        <v>489030.1993241218</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.745062865960837e-06</v>
+        <v>2.637302983874237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343290.4430160002</v>
+        <v>442357.8434588225</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.6548286649707</v>
+        <v>310.848018270675</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.5380652872221</v>
+        <v>425.3159722446439</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.3737306353597</v>
+        <v>384.7244127883306</v>
       </c>
       <c r="AD3" t="n">
-        <v>238654.8286649707</v>
+        <v>310848.018270675</v>
       </c>
       <c r="AE3" t="n">
-        <v>326538.0652872222</v>
+        <v>425315.972244644</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.909439023955405e-06</v>
+        <v>2.885723680006674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>295373.7306353597</v>
+        <v>384724.4127883306</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.100251618894</v>
+        <v>297.6030271357367</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.8873626363967</v>
+        <v>407.1935910460524</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.884779255061</v>
+        <v>368.3316062164108</v>
       </c>
       <c r="AD2" t="n">
-        <v>222100.251618894</v>
+        <v>297603.0271357367</v>
       </c>
       <c r="AE2" t="n">
-        <v>303887.3626363967</v>
+        <v>407193.5910460524</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964836611185886e-06</v>
+        <v>3.105400666964611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>274884.779255061</v>
+        <v>368331.6062164108</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.8795624701114</v>
+        <v>513.3991620988031</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.5517882154699</v>
+        <v>702.4553831560885</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.767196498087</v>
+        <v>635.414027289993</v>
       </c>
       <c r="AD2" t="n">
-        <v>411879.5624701114</v>
+        <v>513399.1620988032</v>
       </c>
       <c r="AE2" t="n">
-        <v>563551.7882154698</v>
+        <v>702455.3831560885</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.328114394187123e-06</v>
+        <v>1.936239765387401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>509767.196498087</v>
+        <v>635414.027289993</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.9223059410724</v>
+        <v>389.1900393215864</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.1541041463952</v>
+        <v>532.5069816525428</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.2916773647217</v>
+        <v>481.6852627018662</v>
       </c>
       <c r="AD3" t="n">
-        <v>312922.3059410724</v>
+        <v>389190.0393215864</v>
       </c>
       <c r="AE3" t="n">
-        <v>428154.1041463952</v>
+        <v>532506.9816525428</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637260352971711e-06</v>
+        <v>2.386939419970919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>387291.6773647218</v>
+        <v>481685.2627018662</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.4997586014564</v>
+        <v>349.7674024734195</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.2144356762908</v>
+        <v>478.5671907128901</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.499935148604</v>
+        <v>432.8934097045218</v>
       </c>
       <c r="AD4" t="n">
-        <v>273499.7586014565</v>
+        <v>349767.4024734194</v>
       </c>
       <c r="AE4" t="n">
-        <v>374214.4356762908</v>
+        <v>478567.1907128901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.754371609438294e-06</v>
+        <v>2.557674315050394e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>338499.935148604</v>
+        <v>432893.4097045218</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>268.5455613488766</v>
+        <v>344.6426130202473</v>
       </c>
       <c r="AB5" t="n">
-        <v>367.4358844315536</v>
+        <v>471.5552276933059</v>
       </c>
       <c r="AC5" t="n">
-        <v>332.368319320908</v>
+        <v>426.5506585941748</v>
       </c>
       <c r="AD5" t="n">
-        <v>268545.5613488766</v>
+        <v>344642.6130202473</v>
       </c>
       <c r="AE5" t="n">
-        <v>367435.8844315537</v>
+        <v>471555.2276933059</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.780478757130374e-06</v>
+        <v>2.595735567713187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>332368.319320908</v>
+        <v>426550.6585941748</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.4531001110053</v>
+        <v>298.6361277208538</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.1066337436512</v>
+        <v>408.6071248437907</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.7968076461156</v>
+        <v>369.6102343324001</v>
       </c>
       <c r="AD2" t="n">
-        <v>224453.1001110052</v>
+        <v>298636.1277208538</v>
       </c>
       <c r="AE2" t="n">
-        <v>307106.6337436512</v>
+        <v>408607.1248437907</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944739158832978e-06</v>
+        <v>3.115928947163102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.1796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>277796.8076461156</v>
+        <v>369610.2343324001</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.6737244715385</v>
+        <v>417.1537246586689</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.969401649548</v>
+        <v>570.7681296014681</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.3112692816096</v>
+        <v>516.2948203904044</v>
       </c>
       <c r="AD2" t="n">
-        <v>326673.7244715386</v>
+        <v>417153.7246586689</v>
       </c>
       <c r="AE2" t="n">
-        <v>446969.401649548</v>
+        <v>570768.1296014681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546114202765971e-06</v>
+        <v>2.295737155962309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.95052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>404311.2692816096</v>
+        <v>516294.8203904044</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.1176263166498</v>
+        <v>331.2165417144091</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.7996795553831</v>
+        <v>453.1850846161957</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.2244118926738</v>
+        <v>409.9337361896862</v>
       </c>
       <c r="AD3" t="n">
-        <v>257117.6263166498</v>
+        <v>331216.5417144091</v>
       </c>
       <c r="AE3" t="n">
-        <v>351799.6795553831</v>
+        <v>453185.0846161957</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.820024727368177e-06</v>
+        <v>2.702451335040061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.79947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>318224.4118926738</v>
+        <v>409933.7361896862</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.278000777732</v>
+        <v>326.3769161754913</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.1778903838292</v>
+        <v>446.5632954446384</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.2345969859113</v>
+        <v>403.9439212829229</v>
       </c>
       <c r="AD4" t="n">
-        <v>252278.0007777321</v>
+        <v>326376.9161754913</v>
       </c>
       <c r="AE4" t="n">
-        <v>345177.8903838292</v>
+        <v>446563.2954446384</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.850301667281064e-06</v>
+        <v>2.747407843299609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.51302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>312234.5969859113</v>
+        <v>403943.9212829228</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.4820255056141</v>
+        <v>463.3403414977073</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.2780959270962</v>
+        <v>633.9626963703681</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.7687478246013</v>
+        <v>573.4581864010121</v>
       </c>
       <c r="AD2" t="n">
-        <v>371482.0255056141</v>
+        <v>463340.3414977073</v>
       </c>
       <c r="AE2" t="n">
-        <v>508278.0959270962</v>
+        <v>633962.6963703681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435662482852923e-06</v>
+        <v>2.111059100497488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>459768.7478246014</v>
+        <v>573458.1864010121</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.7413882004241</v>
+        <v>359.8826919492238</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.5957292392941</v>
+        <v>492.4073760287622</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.4132596417354</v>
+        <v>445.4127071586691</v>
       </c>
       <c r="AD3" t="n">
-        <v>284741.3882004241</v>
+        <v>359882.6919492239</v>
       </c>
       <c r="AE3" t="n">
-        <v>389595.7292392941</v>
+        <v>492407.3760287622</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.726782863054163e-06</v>
+        <v>2.539134874089376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>352413.2596417353</v>
+        <v>445412.7071586691</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.2609547060151</v>
+        <v>335.3169176002432</v>
       </c>
       <c r="AB4" t="n">
-        <v>356.1005201317406</v>
+        <v>458.7953997990111</v>
       </c>
       <c r="AC4" t="n">
-        <v>322.1147862805855</v>
+        <v>415.0086107655805</v>
       </c>
       <c r="AD4" t="n">
-        <v>260260.9547060152</v>
+        <v>335316.9176002432</v>
       </c>
       <c r="AE4" t="n">
-        <v>356100.5201317406</v>
+        <v>458795.3997990111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.814267669597096e-06</v>
+        <v>2.66777624990963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>322114.7862805855</v>
+        <v>415008.6107655805</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.7371466834758</v>
+        <v>335.7931095777039</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.7520670034097</v>
+        <v>459.4469466706802</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.7041504332742</v>
+        <v>415.5979749182692</v>
       </c>
       <c r="AD5" t="n">
-        <v>260737.1466834758</v>
+        <v>335793.1095777039</v>
       </c>
       <c r="AE5" t="n">
-        <v>356752.0670034097</v>
+        <v>459446.9466706802</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.815364581353695e-06</v>
+        <v>2.669389195552403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>322704.1504332742</v>
+        <v>415597.9749182693</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.4397163013677</v>
+        <v>564.9203131550753</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.4162241919794</v>
+        <v>772.9488949840479</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.2045705147357</v>
+        <v>699.1797372873572</v>
       </c>
       <c r="AD2" t="n">
-        <v>453439.7163013677</v>
+        <v>564920.3131550753</v>
       </c>
       <c r="AE2" t="n">
-        <v>620416.2241919794</v>
+        <v>772948.8949840479</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235084147348114e-06</v>
+        <v>1.786885787801581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>561204.5705147356</v>
+        <v>699179.7372873572</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.2910156237425</v>
+        <v>418.1109677070343</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.655227221389</v>
+        <v>572.0778717708245</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.263570447998</v>
+        <v>517.479562605352</v>
       </c>
       <c r="AD3" t="n">
-        <v>332291.0156237425</v>
+        <v>418110.9677070343</v>
       </c>
       <c r="AE3" t="n">
-        <v>454655.227221389</v>
+        <v>572077.8717708244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.559136685951107e-06</v>
+        <v>2.255716091367535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>411263.570447998</v>
+        <v>517479.562605352</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.6088074083212</v>
+        <v>376.7615129372632</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.9379881037829</v>
+        <v>515.5017235456255</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.8140818707369</v>
+        <v>466.3029625616433</v>
       </c>
       <c r="AD4" t="n">
-        <v>299608.8074083212</v>
+        <v>376761.5129372632</v>
       </c>
       <c r="AE4" t="n">
-        <v>409937.9881037829</v>
+        <v>515501.7235456255</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.679906429699686e-06</v>
+        <v>2.430442436260009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>370814.0818707369</v>
+        <v>466302.9625616433</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.6423825539613</v>
+        <v>353.8803394289239</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.5143124108918</v>
+        <v>484.1946925053837</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.3894376825695</v>
+        <v>437.9838306241882</v>
       </c>
       <c r="AD5" t="n">
-        <v>276642.3825539613</v>
+        <v>353880.3394289239</v>
       </c>
       <c r="AE5" t="n">
-        <v>378514.3124108918</v>
+        <v>484194.6925053837</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.742938212965308e-06</v>
+        <v>2.521635087334806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>342389.4376825695</v>
+        <v>437983.8306241882</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>277.3034029052646</v>
+        <v>354.5413597802273</v>
       </c>
       <c r="AB6" t="n">
-        <v>379.4187496177047</v>
+        <v>485.0991297121967</v>
       </c>
       <c r="AC6" t="n">
-        <v>343.2075566717498</v>
+        <v>438.8019496133685</v>
       </c>
       <c r="AD6" t="n">
-        <v>277303.4029052646</v>
+        <v>354541.3597802273</v>
       </c>
       <c r="AE6" t="n">
-        <v>379418.7496177048</v>
+        <v>485099.1297121966</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.742726460054002e-06</v>
+        <v>2.521328729044522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>343207.5566717498</v>
+        <v>438801.9496133685</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.7211809694737</v>
+        <v>371.679273301463</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.7775455157459</v>
+        <v>508.547979063335</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.8142148560138</v>
+        <v>460.012873693101</v>
       </c>
       <c r="AD2" t="n">
-        <v>290721.1809694737</v>
+        <v>371679.273301463</v>
       </c>
       <c r="AE2" t="n">
-        <v>397777.5455157459</v>
+        <v>508547.979063335</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674835016131587e-06</v>
+        <v>2.515073974771549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>359814.2148560138</v>
+        <v>460012.873693101</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.0514848354192</v>
+        <v>315.9137679342126</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.5537642264074</v>
+        <v>432.2471544193985</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.8152997108776</v>
+        <v>390.9940926643017</v>
       </c>
       <c r="AD3" t="n">
-        <v>243051.4848354192</v>
+        <v>315913.7679342126</v>
       </c>
       <c r="AE3" t="n">
-        <v>332553.7642264074</v>
+        <v>432247.1544193985</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.890530572700821e-06</v>
+        <v>2.838980673387244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>300815.2997108776</v>
+        <v>390994.0926643017</v>
       </c>
     </row>
     <row r="4">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.6788931228829</v>
+        <v>316.5411762216763</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.412211924615</v>
+        <v>433.1056021176065</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.5918183656074</v>
+        <v>391.7706113190317</v>
       </c>
       <c r="AD4" t="n">
-        <v>243678.8931228829</v>
+        <v>316541.1762216763</v>
       </c>
       <c r="AE4" t="n">
-        <v>333412.211924615</v>
+        <v>433105.6021176065</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890046950376674e-06</v>
+        <v>2.838254425184069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>301591.8183656074</v>
+        <v>391770.6113190317</v>
       </c>
     </row>
   </sheetData>
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.944565115055</v>
+        <v>313.5830416977615</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.4074719480402</v>
+        <v>429.0581519583016</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.6829693622352</v>
+        <v>388.1094441222988</v>
       </c>
       <c r="AD2" t="n">
-        <v>242944.565115055</v>
+        <v>313583.0416977615</v>
       </c>
       <c r="AE2" t="n">
-        <v>332407.4719480402</v>
+        <v>429058.1519583015</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89421730752636e-06</v>
+        <v>2.905249637094053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>300682.9693622352</v>
+        <v>388109.4441222989</v>
       </c>
     </row>
     <row r="3">
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.2399423556727</v>
+        <v>300.9636702843994</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.024446600263</v>
+        <v>411.7917712631647</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.958955556415</v>
+        <v>372.4909425671884</v>
       </c>
       <c r="AD3" t="n">
-        <v>230239.9423556727</v>
+        <v>300963.6702843994</v>
       </c>
       <c r="AE3" t="n">
-        <v>315024.4466002631</v>
+        <v>411791.7712631647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938469889184813e-06</v>
+        <v>2.973121890342327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>284958.955556415</v>
+        <v>372490.9425671884</v>
       </c>
     </row>
   </sheetData>
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.3889176245244</v>
+        <v>296.3180070893293</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.1235487847737</v>
+        <v>405.4353699274744</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.4303539534903</v>
+        <v>366.741187253711</v>
       </c>
       <c r="AD2" t="n">
-        <v>227388.9176245244</v>
+        <v>296318.0070893293</v>
       </c>
       <c r="AE2" t="n">
-        <v>311123.5487847737</v>
+        <v>405435.3699274744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963649642389145e-06</v>
+        <v>3.068163832526029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281430.3539534903</v>
+        <v>366741.187253711</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.780333193423</v>
+        <v>298.6126434390521</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.9226126004054</v>
+        <v>408.5749926133764</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.439472029524</v>
+        <v>369.5811687569587</v>
       </c>
       <c r="AD2" t="n">
-        <v>225780.333193423</v>
+        <v>298612.6434390522</v>
       </c>
       <c r="AE2" t="n">
-        <v>308922.6126004054</v>
+        <v>408574.9926133764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89263468983528e-06</v>
+        <v>3.084381582693396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279439.472029524</v>
+        <v>369581.1687569587</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7063025799829</v>
+        <v>439.9754546114161</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.1153470262668</v>
+        <v>601.9938273464843</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.5801279416744</v>
+        <v>544.5403813681781</v>
       </c>
       <c r="AD2" t="n">
-        <v>348706.3025799829</v>
+        <v>439975.4546114161</v>
       </c>
       <c r="AE2" t="n">
-        <v>477115.3470262667</v>
+        <v>601993.8273464843</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489705225216657e-06</v>
+        <v>2.200861904498419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.5234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>431580.1279416744</v>
+        <v>544540.3813681782</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.6660328810463</v>
+        <v>350.2555422880165</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.1784277149018</v>
+        <v>479.2350851424304</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.1810479470388</v>
+        <v>433.4975612271026</v>
       </c>
       <c r="AD3" t="n">
-        <v>275666.0328810463</v>
+        <v>350255.5422880165</v>
       </c>
       <c r="AE3" t="n">
-        <v>377178.4277149018</v>
+        <v>479235.0851424304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.769920476801783e-06</v>
+        <v>2.61484653839366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.11197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>341181.0479470388</v>
+        <v>433497.5612271025</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.1947559252058</v>
+        <v>330.6989244776075</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.5369675716419</v>
+        <v>452.4768578771429</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.082211368433</v>
+        <v>409.2931016166062</v>
       </c>
       <c r="AD4" t="n">
-        <v>256194.7559252058</v>
+        <v>330698.9244776075</v>
       </c>
       <c r="AE4" t="n">
-        <v>350536.9675716418</v>
+        <v>452476.8578771429</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.831886896432758e-06</v>
+        <v>2.706394537296693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>317082.211368433</v>
+        <v>409293.1016166062</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.9964565074478</v>
+        <v>537.258999249907</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.1813424827412</v>
+        <v>735.1014649679535</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.3780704984482</v>
+        <v>664.9444128727972</v>
       </c>
       <c r="AD2" t="n">
-        <v>434996.4565074478</v>
+        <v>537258.999249907</v>
       </c>
       <c r="AE2" t="n">
-        <v>595181.3424827412</v>
+        <v>735101.4649679535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285735263583741e-06</v>
+        <v>1.867104912077656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>538378.0704984482</v>
+        <v>664944.4128727972</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.0588048545567</v>
+        <v>408.1780410610309</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.0233091505954</v>
+        <v>558.4872033239665</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.8372249088725</v>
+        <v>505.1859684804392</v>
       </c>
       <c r="AD3" t="n">
-        <v>323058.8048545567</v>
+        <v>408178.0410610309</v>
       </c>
       <c r="AE3" t="n">
-        <v>442023.3091505955</v>
+        <v>558487.2033239665</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.595473244271418e-06</v>
+        <v>2.316896810595737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.36197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>399837.2249088726</v>
+        <v>505185.9684804392</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.5269976619003</v>
+        <v>366.6461443598235</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.1976582955836</v>
+        <v>501.6614299994062</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.4349344161611</v>
+        <v>453.7835672065011</v>
       </c>
       <c r="AD4" t="n">
-        <v>281526.9976619003</v>
+        <v>366646.1443598235</v>
       </c>
       <c r="AE4" t="n">
-        <v>385197.6582955836</v>
+        <v>501661.4299994062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72071120383409e-06</v>
+        <v>2.498763495053223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.95572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>348434.9344161612</v>
+        <v>453783.5672065011</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.7725939734166</v>
+        <v>349.5334395397764</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.2194969519674</v>
+        <v>478.2470723053635</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.5999519797246</v>
+        <v>432.6038429485205</v>
       </c>
       <c r="AD5" t="n">
-        <v>272772.5939734167</v>
+        <v>349533.4395397764</v>
       </c>
       <c r="AE5" t="n">
-        <v>373219.4969519674</v>
+        <v>478247.0723053635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.761041670069465e-06</v>
+        <v>2.557330148506098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>337599.9519797246</v>
+        <v>432603.8429485206</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.0573835869908</v>
+        <v>319.3600103755554</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.247638106571</v>
+        <v>436.96245536513</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.683652996158</v>
+        <v>395.2593719057391</v>
       </c>
       <c r="AD2" t="n">
-        <v>234057.3835869908</v>
+        <v>319360.0103755554</v>
       </c>
       <c r="AE2" t="n">
-        <v>320247.638106571</v>
+        <v>436962.45536513</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74305784776381e-06</v>
+        <v>2.905573582505901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>289683.652996158</v>
+        <v>395259.3719057391</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.443888822819</v>
+        <v>335.7839577264093</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.8778421931237</v>
+        <v>459.4344247039875</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.3905533944613</v>
+        <v>415.5866480305031</v>
       </c>
       <c r="AD2" t="n">
-        <v>256443.888822819</v>
+        <v>335783.9577264093</v>
       </c>
       <c r="AE2" t="n">
-        <v>350877.8421931238</v>
+        <v>459434.4247039875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.815213833689791e-06</v>
+        <v>2.762585953333584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.73697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>317390.5533944613</v>
+        <v>415586.6480305031</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.1992345270093</v>
+        <v>305.6821033093551</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.4417248207261</v>
+        <v>418.2477394904827</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.8592163467165</v>
+        <v>378.3307622478995</v>
       </c>
       <c r="AD3" t="n">
-        <v>234199.2345270093</v>
+        <v>305682.1033093551</v>
       </c>
       <c r="AE3" t="n">
-        <v>320441.7248207261</v>
+        <v>418247.7394904827</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927825337607846e-06</v>
+        <v>2.933970146828528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.64322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289859.2163467165</v>
+        <v>378330.7622478995</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.2711429476063</v>
+        <v>394.8481031318975</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.6313983283375</v>
+        <v>540.248594173969</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.7234192598261</v>
+        <v>488.6880265896688</v>
       </c>
       <c r="AD2" t="n">
-        <v>313271.1429476063</v>
+        <v>394848.1031318975</v>
       </c>
       <c r="AE2" t="n">
-        <v>428631.3983283375</v>
+        <v>540248.594173969</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.605104918197598e-06</v>
+        <v>2.396278297403461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387723.4192598261</v>
+        <v>488688.0265896688</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.8904717729201</v>
+        <v>322.3864621502039</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.5429237522156</v>
+        <v>441.1033802008332</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.0419850644009</v>
+        <v>399.0050926869473</v>
       </c>
       <c r="AD3" t="n">
-        <v>248890.4717729201</v>
+        <v>322386.4621502039</v>
       </c>
       <c r="AE3" t="n">
-        <v>340542.9237522156</v>
+        <v>441103.3802008332</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.860711216469038e-06</v>
+        <v>2.777875673552106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>308041.9850644009</v>
+        <v>399005.0926869473</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.7037083107429</v>
+        <v>321.0291064874345</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.9191416269567</v>
+        <v>439.2461863007266</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.5731744261838</v>
+        <v>397.3251467660788</v>
       </c>
       <c r="AD4" t="n">
-        <v>247703.7083107429</v>
+        <v>321029.1064874345</v>
       </c>
       <c r="AE4" t="n">
-        <v>338919.1416269568</v>
+        <v>439246.1863007266</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.874295253578238e-06</v>
+        <v>2.798155427820413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>306573.1744261838</v>
+        <v>397325.1467660788</v>
       </c>
     </row>
   </sheetData>
